--- a/data/trans_orig/AIRE_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4456</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>797</v>
+        <v>862</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16863</v>
+        <v>15984</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03258288672771122</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005825985721928243</v>
+        <v>0.006302845506722284</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1233208765983673</v>
+        <v>0.1168900179644115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1486</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3917</v>
+        <v>3582</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.00983082786812318</v>
+        <v>0.009830827868123178</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003172418914963787</v>
+        <v>0.003010242418336029</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02590713539477056</v>
+        <v>0.02369462453001606</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>5942</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2045</v>
+        <v>1992</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17391</v>
+        <v>16653</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02063647735875534</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007101566430940267</v>
+        <v>0.006918580000825554</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06040255012030545</v>
+        <v>0.05783991939943748</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>36411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27407</v>
+        <v>26798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48430</v>
+        <v>47664</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2662748030535306</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2004250499580182</v>
+        <v>0.1959695223388186</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.354169073873246</v>
+        <v>0.3485666454128113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -833,19 +833,19 @@
         <v>62037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52232</v>
+        <v>51942</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72040</v>
+        <v>72344</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4103498312769506</v>
+        <v>0.4103498312769505</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3454968274094941</v>
+        <v>0.3435793891237794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4765153527348793</v>
+        <v>0.4785272793454864</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>134</v>
@@ -854,19 +854,19 @@
         <v>98448</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82931</v>
+        <v>84368</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>113903</v>
+        <v>114603</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3419241883519304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2880330642343958</v>
+        <v>0.2930231340900418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3956012427357119</v>
+        <v>0.3980343264648595</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>66951</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55456</v>
+        <v>55195</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79438</v>
+        <v>78067</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4896047840185865</v>
+        <v>0.4896047840185864</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4055448967651313</v>
+        <v>0.4036346465516136</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5809228464609684</v>
+        <v>0.5709023355739182</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>120</v>
@@ -904,19 +904,19 @@
         <v>67573</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58076</v>
+        <v>58138</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>78294</v>
+        <v>77811</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4469709822444458</v>
+        <v>0.4469709822444457</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3841495626773056</v>
+        <v>0.3845584281043433</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5178872580207158</v>
+        <v>0.5146913779071689</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>196</v>
@@ -925,19 +925,19 @@
         <v>134523</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>120096</v>
+        <v>118931</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>150530</v>
+        <v>150682</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.467219080285486</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4171131512776795</v>
+        <v>0.413066330894031</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5228141569909576</v>
+        <v>0.523340248411138</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>18556</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11739</v>
+        <v>11936</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27595</v>
+        <v>28366</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1357018850722522</v>
+        <v>0.1357018850722521</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0858468304100462</v>
+        <v>0.08728932673501344</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.201801340065526</v>
+        <v>0.2074394028330226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -975,19 +975,19 @@
         <v>11615</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7739</v>
+        <v>7473</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16969</v>
+        <v>17023</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07683020319256803</v>
+        <v>0.07683020319256802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05118792914207376</v>
+        <v>0.04943265272469653</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1122410237230927</v>
+        <v>0.1126023654862957</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -996,19 +996,19 @@
         <v>30171</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21961</v>
+        <v>21659</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40565</v>
+        <v>40670</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1047901677497002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07627429112437314</v>
+        <v>0.07522411289790436</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1408880672456488</v>
+        <v>0.1412536195916368</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>10370</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5475</v>
+        <v>5605</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16883</v>
+        <v>16920</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07583564112791945</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04003596935407636</v>
+        <v>0.04098550659365344</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1234665919438357</v>
+        <v>0.1237364661684983</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -1046,19 +1046,19 @@
         <v>8469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4963</v>
+        <v>5099</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13576</v>
+        <v>13204</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.05601815541791248</v>
+        <v>0.05601815541791246</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03282577749853415</v>
+        <v>0.03372901488041365</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08979877248697711</v>
+        <v>0.08733747132421067</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -1067,19 +1067,19 @@
         <v>18839</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12166</v>
+        <v>12634</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26492</v>
+        <v>26969</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06543008625412798</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04225408202935541</v>
+        <v>0.04388115200995662</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09201208772768715</v>
+        <v>0.09366745829106628</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>41400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28032</v>
+        <v>28511</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58616</v>
+        <v>60254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2087263273464249</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1413289824963326</v>
+        <v>0.1437434921404196</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2955243622937121</v>
+        <v>0.3037827979253498</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1192,19 +1192,19 @@
         <v>47833</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37451</v>
+        <v>37066</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58966</v>
+        <v>59234</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2486024567058371</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1946464052251394</v>
+        <v>0.19264364315209</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3064649845688968</v>
+        <v>0.307861483952531</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -1213,19 +1213,19 @@
         <v>89233</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72480</v>
+        <v>71307</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110869</v>
+        <v>107235</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2283613034626307</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1854892628035539</v>
+        <v>0.1824861629538917</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2837321138775901</v>
+        <v>0.2744323384239251</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>83485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>66853</v>
+        <v>67407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102305</v>
+        <v>101358</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.42090691103704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3370540586455338</v>
+        <v>0.3398476285404349</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5157883023998197</v>
+        <v>0.5110136727215925</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -1263,19 +1263,19 @@
         <v>89080</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>77891</v>
+        <v>76643</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>100937</v>
+        <v>100702</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4629808931594244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.404824235347939</v>
+        <v>0.398337859853103</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5246034897338505</v>
+        <v>0.5233824464639496</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>186</v>
@@ -1284,19 +1284,19 @@
         <v>172566</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>151356</v>
+        <v>154378</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>190367</v>
+        <v>193919</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4416241082013053</v>
+        <v>0.4416241082013052</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3873442911943116</v>
+        <v>0.3950781130214512</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4871822754252579</v>
+        <v>0.4962700913266712</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>66990</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52928</v>
+        <v>51306</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85939</v>
+        <v>81785</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3377432487409571</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2668461486425647</v>
+        <v>0.2586692296745144</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4332770599885328</v>
+        <v>0.4123367996159946</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -1334,19 +1334,19 @@
         <v>40046</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31693</v>
+        <v>32132</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51007</v>
+        <v>50204</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2081327782881127</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1647174225982872</v>
+        <v>0.1670006786744316</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2651013677985617</v>
+        <v>0.2609249811532011</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>111</v>
@@ -1355,19 +1355,19 @@
         <v>107036</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>89386</v>
+        <v>90577</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>126277</v>
+        <v>125025</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2739231505359866</v>
+        <v>0.2739231505359865</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2287534866917899</v>
+        <v>0.2318012099070766</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3231628224697821</v>
+        <v>0.3199611849417175</v>
       </c>
     </row>
     <row r="13">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11179</v>
+        <v>11152</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01648244669993378</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05636318547222832</v>
+        <v>0.0562272199950585</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1405,19 +1405,19 @@
         <v>5620</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2712</v>
+        <v>2749</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10705</v>
+        <v>10491</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02920668456839432</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01409697929396442</v>
+        <v>0.01428924871969149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05563998635658717</v>
+        <v>0.05452578513168217</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1426,19 +1426,19 @@
         <v>8889</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4208</v>
+        <v>4644</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16455</v>
+        <v>18609</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02274785185980477</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01076776726210253</v>
+        <v>0.01188407053593314</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04211143519624702</v>
+        <v>0.0476236552881505</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>3202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>995</v>
+        <v>976</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8905</v>
+        <v>9693</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01614106617564416</v>
+        <v>0.01614106617564417</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005016471386253508</v>
+        <v>0.004922086405135847</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04489573377806464</v>
+        <v>0.04886995459338565</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1476,19 +1476,19 @@
         <v>9828</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5631</v>
+        <v>5276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15668</v>
+        <v>15248</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05107718727823139</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02926616358959601</v>
+        <v>0.02742110866570598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08143212522893745</v>
+        <v>0.0792483092988004</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -1497,19 +1497,19 @@
         <v>13029</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7835</v>
+        <v>7964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20384</v>
+        <v>20946</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03334358594027272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02005151777652934</v>
+        <v>0.02038178918494317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05216680054817215</v>
+        <v>0.05360494150822178</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>6463</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2594</v>
+        <v>2532</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13148</v>
+        <v>12767</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04653392730479157</v>
+        <v>0.04653392730479156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01867811647742171</v>
+        <v>0.01822892233789662</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09466667755505392</v>
+        <v>0.09192405926586157</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1622,19 +1622,19 @@
         <v>7318</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4200</v>
+        <v>4327</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11990</v>
+        <v>12440</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05228537518401892</v>
+        <v>0.05228537518401891</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0300049027471642</v>
+        <v>0.03091791136856008</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08566662517285416</v>
+        <v>0.08888395224194458</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1643,19 +1643,19 @@
         <v>13781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8865</v>
+        <v>8546</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21247</v>
+        <v>20866</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04942076532533084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03179239089264482</v>
+        <v>0.03064879418213053</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07619580735507117</v>
+        <v>0.07483112955779828</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>43577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34679</v>
+        <v>34446</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54783</v>
+        <v>54249</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3137663508659567</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2496963609479289</v>
+        <v>0.2480217208505289</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3944563358691739</v>
+        <v>0.3906074754920227</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>89</v>
@@ -1693,19 +1693,19 @@
         <v>54751</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45503</v>
+        <v>45631</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64907</v>
+        <v>64140</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3911843233948679</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3251149234730568</v>
+        <v>0.3260242149846287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4637525982721937</v>
+        <v>0.45827341793545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>148</v>
@@ -1714,19 +1714,19 @@
         <v>98327</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>85028</v>
+        <v>84778</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>112379</v>
+        <v>112100</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3526249393922861</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3049290452241489</v>
+        <v>0.304034808893565</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.40301706614581</v>
+        <v>0.4020181491840116</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>59800</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49096</v>
+        <v>48655</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70359</v>
+        <v>70180</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4305761256387121</v>
+        <v>0.430576125638712</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3535049782921218</v>
+        <v>0.3503329692738517</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5066070958659235</v>
+        <v>0.5053172689419075</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>77</v>
@@ -1764,19 +1764,19 @@
         <v>47555</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38200</v>
+        <v>38614</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56345</v>
+        <v>56813</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3397737371946957</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2729337986041231</v>
+        <v>0.2758922182645432</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4025747356924626</v>
+        <v>0.4059228772408331</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>142</v>
@@ -1785,19 +1785,19 @@
         <v>107355</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>92238</v>
+        <v>92343</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>120883</v>
+        <v>120314</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3849994651489753</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3307885555537798</v>
+        <v>0.331165419984513</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4335144377743293</v>
+        <v>0.4314752171697017</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>8758</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4564</v>
+        <v>4560</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14328</v>
+        <v>15095</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06306079210919324</v>
+        <v>0.06306079210919323</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0328595423521244</v>
+        <v>0.03283016226106181</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1031630882947392</v>
+        <v>0.1086920796838507</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1835,19 +1835,19 @@
         <v>11888</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7354</v>
+        <v>7559</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18013</v>
+        <v>18511</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08493518767447147</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0525413618564889</v>
+        <v>0.05400664910116143</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1287030852239675</v>
+        <v>0.1322553541479215</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -1856,19 +1856,19 @@
         <v>20646</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14267</v>
+        <v>14344</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29779</v>
+        <v>28783</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07404025990933333</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05116338454378556</v>
+        <v>0.05143985525540166</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1067927491823676</v>
+        <v>0.1032228434795911</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>20286</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13538</v>
+        <v>13465</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29103</v>
+        <v>29442</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1460628040813465</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09747696643641215</v>
+        <v>0.096952135322427</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2095495180812406</v>
+        <v>0.2119878425801283</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -1906,19 +1906,19 @@
         <v>18450</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12434</v>
+        <v>12490</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26132</v>
+        <v>25203</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.131821376551946</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08883945751628658</v>
+        <v>0.08924235397485895</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1867121928326523</v>
+        <v>0.1800684572735703</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>53</v>
@@ -1927,19 +1927,19 @@
         <v>38735</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29847</v>
+        <v>29057</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>48706</v>
+        <v>49314</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1389145702240746</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1070366707912389</v>
+        <v>0.1042041236783056</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1746723169457904</v>
+        <v>0.1768527002841157</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>26814</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15537</v>
+        <v>16403</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46402</v>
+        <v>46395</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1955435523283036</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1133058889214315</v>
+        <v>0.119624280420026</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3383913723139081</v>
+        <v>0.3383418019109518</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -2052,19 +2052,19 @@
         <v>36358</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27068</v>
+        <v>26749</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48531</v>
+        <v>48155</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2263404311962816</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1685063022638714</v>
+        <v>0.1665184851661239</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3021206526798559</v>
+        <v>0.2997828942743471</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -2073,19 +2073,19 @@
         <v>63172</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48801</v>
+        <v>46213</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>85540</v>
+        <v>82321</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2121577379630251</v>
+        <v>0.2121577379630252</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.163893510174864</v>
+        <v>0.1552028317475762</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.287278447196773</v>
+        <v>0.2764691467067791</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>31338</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19662</v>
+        <v>21137</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45591</v>
+        <v>45938</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2285373304597999</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1433837759594505</v>
+        <v>0.1541450519765407</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3324811571239764</v>
+        <v>0.3350082249744347</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>59</v>
@@ -2123,19 +2123,19 @@
         <v>41757</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31892</v>
+        <v>31550</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>55136</v>
+        <v>54852</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2599501958365321</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1985386544790823</v>
+        <v>0.1964108226093859</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3432374992398226</v>
+        <v>0.3414707677634621</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>82</v>
@@ -2144,19 +2144,19 @@
         <v>73095</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>56446</v>
+        <v>58380</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>92401</v>
+        <v>91951</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2454838262045426</v>
+        <v>0.2454838262045425</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.189567852439777</v>
+        <v>0.1960626886752969</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3103198829569617</v>
+        <v>0.3088080326546866</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>41398</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27509</v>
+        <v>27682</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>57586</v>
+        <v>55423</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.301898938094233</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2006095269408826</v>
+        <v>0.2018777171055983</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4199490613890282</v>
+        <v>0.4041802793930897</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -2194,19 +2194,19 @@
         <v>23911</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16672</v>
+        <v>17124</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32391</v>
+        <v>32200</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1488544866318286</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1037900183612605</v>
+        <v>0.1066029667218035</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2016430549272772</v>
+        <v>0.2004561195355451</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>66</v>
@@ -2215,19 +2215,19 @@
         <v>65309</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>50941</v>
+        <v>49769</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>84850</v>
+        <v>82211</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2193350868071997</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.171081375530912</v>
+        <v>0.1671438204014266</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2849601919063872</v>
+        <v>0.2760997373103513</v>
       </c>
     </row>
     <row r="25">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4531</v>
+        <v>5524</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01067544511401838</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03304426365453889</v>
+        <v>0.04028144691532095</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2265,19 +2265,19 @@
         <v>7481</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3322</v>
+        <v>3202</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14730</v>
+        <v>15157</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04657157656554631</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02067923782067715</v>
+        <v>0.01993059067568686</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09170150113626424</v>
+        <v>0.09435472196613184</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2286,19 +2286,19 @@
         <v>8945</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4664</v>
+        <v>4492</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17489</v>
+        <v>17991</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03004055656120988</v>
+        <v>0.03004055656120987</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01566482418882394</v>
+        <v>0.01508671614434723</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05873378250709221</v>
+        <v>0.06042060393712852</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>36111</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25603</v>
+        <v>25811</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48153</v>
+        <v>48947</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2633447340036451</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1867138051351462</v>
+        <v>0.1882276806941983</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3511590257290652</v>
+        <v>0.3569488929833193</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>78</v>
@@ -2336,19 +2336,19 @@
         <v>51127</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>40985</v>
+        <v>40454</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>62965</v>
+        <v>62728</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3182833097698114</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2551453901240803</v>
+        <v>0.2518418496512284</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3919765601567356</v>
+        <v>0.3905034153068704</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>120</v>
@@ -2357,19 +2357,19 @@
         <v>87239</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>72690</v>
+        <v>71105</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>106900</v>
+        <v>103279</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2929827924640226</v>
+        <v>0.2929827924640227</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.244123050986512</v>
+        <v>0.2388012150028894</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3590141693521569</v>
+        <v>0.3468542914489025</v>
       </c>
     </row>
     <row r="27">
@@ -2474,19 +2474,19 @@
         <v>1548</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5356</v>
+        <v>4300</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02166933582614801</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005376353563904286</v>
+        <v>0.005328198263383751</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07495022685861794</v>
+        <v>0.06018076834264126</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2495,19 +2495,19 @@
         <v>1548</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4421</v>
+        <v>4828</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01271697960384765</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003083840129792788</v>
+        <v>0.003132762180563081</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03630561386127872</v>
+        <v>0.03964955537517572</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>9803</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5369</v>
+        <v>5421</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15661</v>
+        <v>15254</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1948726412608673</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1067380255888848</v>
+        <v>0.1077593515002872</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.311319496905774</v>
+        <v>0.3032406760084458</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>57</v>
@@ -2545,19 +2545,19 @@
         <v>23849</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18117</v>
+        <v>18917</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30079</v>
+        <v>29569</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3337549052075622</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.253540036547777</v>
+        <v>0.2647355264166766</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4209353165436653</v>
+        <v>0.413789071675097</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>72</v>
@@ -2566,19 +2566,19 @@
         <v>33653</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26842</v>
+        <v>26745</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>41296</v>
+        <v>41411</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2763778120753372</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2204466717960008</v>
+        <v>0.2196499030734186</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.339149816809671</v>
+        <v>0.3400985293352984</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>38503</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32088</v>
+        <v>33116</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>42840</v>
+        <v>43239</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7654080396194444</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6378847347431378</v>
+        <v>0.6583132771284181</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8516160593639709</v>
+        <v>0.8595517761872806</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>90</v>
@@ -2616,19 +2616,19 @@
         <v>45193</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>38997</v>
+        <v>39345</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>50804</v>
+        <v>50332</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6324391270115161</v>
+        <v>0.6324391270115162</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5457313905939161</v>
+        <v>0.5505992198104971</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7109637066381543</v>
+        <v>0.7043606363831216</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>142</v>
@@ -2637,19 +2637,19 @@
         <v>83697</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>75751</v>
+        <v>75876</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>91070</v>
+        <v>90832</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6873732090576157</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6221149029483478</v>
+        <v>0.6231451132131481</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7479266471324026</v>
+        <v>0.7459745479459017</v>
       </c>
     </row>
     <row r="31">
@@ -2669,16 +2669,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4187</v>
+        <v>4929</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.02862156940114407</v>
+        <v>0.02862156940114408</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08324355542490088</v>
+        <v>0.09798605939615622</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4974</v>
+        <v>4988</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01182456568932514</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04084891772097335</v>
+        <v>0.0409640948215476</v>
       </c>
     </row>
     <row r="32">
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2722</v>
+        <v>2472</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01109774971854425</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05410813967550878</v>
+        <v>0.04913199110771005</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3070</v>
+        <v>2997</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0121366319547735</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04296256800110799</v>
+        <v>0.04194097160481811</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -2771,19 +2771,19 @@
         <v>1426</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3915</v>
+        <v>3861</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01170743357387428</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003189457148552961</v>
+        <v>0.0031238255990777</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03215007410702296</v>
+        <v>0.03170726744068886</v>
       </c>
     </row>
     <row r="33">
@@ -2878,16 +2878,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2396</v>
+        <v>3030</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.004274866378186898</v>
+        <v>0.004274866378186899</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02192165153554002</v>
+        <v>0.02772805345267439</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -2896,19 +2896,19 @@
         <v>1785</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5633</v>
+        <v>6204</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01552893069741105</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002152893490917433</v>
+        <v>0.002045165253388881</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0490154506396589</v>
+        <v>0.05398597182662612</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -2917,19 +2917,19 @@
         <v>2252</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>687</v>
+        <v>558</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6315</v>
+        <v>6149</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.01004345035325754</v>
+        <v>0.01004345035325753</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003064564727852499</v>
+        <v>0.002489391823729961</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02816502363462791</v>
+        <v>0.02742736192134682</v>
       </c>
     </row>
     <row r="35">
@@ -2946,19 +2946,19 @@
         <v>39855</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>30852</v>
+        <v>31869</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>49285</v>
+        <v>49002</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.3646907835805867</v>
+        <v>0.3646907835805868</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2823137863183637</v>
+        <v>0.291613518126225</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4509815130527589</v>
+        <v>0.4483894730886328</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>83</v>
@@ -2967,19 +2967,19 @@
         <v>40676</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>32473</v>
+        <v>33107</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>49575</v>
+        <v>48761</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3539379974207533</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2825598630372417</v>
+        <v>0.288073314022188</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4313728622155114</v>
+        <v>0.4242853102687377</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>137</v>
@@ -2988,19 +2988,19 @@
         <v>80530</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>69049</v>
+        <v>69339</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>92998</v>
+        <v>93083</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3591791436814776</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3079685093968992</v>
+        <v>0.3092611369661057</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4147845691951363</v>
+        <v>0.415167509286778</v>
       </c>
     </row>
     <row r="36">
@@ -3017,19 +3017,19 @@
         <v>46948</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>38490</v>
+        <v>38138</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>56641</v>
+        <v>56527</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.4296004944293946</v>
+        <v>0.4296004944293947</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3521998339323339</v>
+        <v>0.3489820496626445</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5182930324041721</v>
+        <v>0.5172452462388692</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>80</v>
@@ -3038,19 +3038,19 @@
         <v>51997</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>42642</v>
+        <v>43410</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>61231</v>
+        <v>60638</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.4524427993644818</v>
+        <v>0.4524427993644819</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3710437160815874</v>
+        <v>0.3777277569255625</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5327989403924093</v>
+        <v>0.5276348002067853</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>143</v>
@@ -3059,19 +3059,19 @@
         <v>98945</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>86993</v>
+        <v>85291</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>111856</v>
+        <v>111263</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.4413089537437009</v>
+        <v>0.4413089537437008</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.388000955529692</v>
+        <v>0.3804108012686184</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4988958218749083</v>
+        <v>0.4962522444178467</v>
       </c>
     </row>
     <row r="37">
@@ -3088,19 +3088,19 @@
         <v>6745</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3168</v>
+        <v>3434</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12120</v>
+        <v>13328</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06172038102407621</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02898583708166504</v>
+        <v>0.03141842989714271</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1109027382410141</v>
+        <v>0.1219616421155069</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -3109,19 +3109,19 @@
         <v>8581</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4832</v>
+        <v>4844</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>14187</v>
+        <v>14346</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.07466764407220765</v>
+        <v>0.07466764407220766</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04204717739820847</v>
+        <v>0.04214647201929705</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1234471440746724</v>
+        <v>0.1248305269129592</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>25</v>
@@ -3130,19 +3130,19 @@
         <v>15326</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10149</v>
+        <v>9987</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>23363</v>
+        <v>22851</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06835686114556393</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04526587953759861</v>
+        <v>0.04454574503642319</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1042022632080715</v>
+        <v>0.101918951958103</v>
       </c>
     </row>
     <row r="38">
@@ -3159,19 +3159,19 @@
         <v>15268</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>9714</v>
+        <v>9267</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>23373</v>
+        <v>22327</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1397134745877554</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08888820275808489</v>
+        <v>0.08479490150151547</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2138759669712968</v>
+        <v>0.2043030470483122</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>23</v>
@@ -3180,19 +3180,19 @@
         <v>11886</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>7662</v>
+        <v>7609</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>17726</v>
+        <v>17202</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1034226284451462</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06667182813702204</v>
+        <v>0.06620500225064577</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.154245126075631</v>
+        <v>0.1496797483718932</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>43</v>
@@ -3201,19 +3201,19 @@
         <v>27154</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>19550</v>
+        <v>19986</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>36017</v>
+        <v>35747</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1211115910760001</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08719401368743848</v>
+        <v>0.08913900267372715</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1606403434084488</v>
+        <v>0.1594366849591634</v>
       </c>
     </row>
     <row r="39">
@@ -3305,19 +3305,19 @@
         <v>31137</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>18769</v>
+        <v>18988</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>49630</v>
+        <v>48243</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1438139211414501</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.08668712627076948</v>
+        <v>0.0877011050613045</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2292297521394023</v>
+        <v>0.2228227024026851</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>25</v>
@@ -3326,19 +3326,19 @@
         <v>20395</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>13962</v>
+        <v>13235</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>30429</v>
+        <v>29655</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.0879984601957028</v>
+        <v>0.08799846019570277</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06023936471332251</v>
+        <v>0.05710580681439915</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1312905137044117</v>
+        <v>0.1279502391645814</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>46</v>
@@ -3347,19 +3347,19 @@
         <v>51532</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>36402</v>
+        <v>37477</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>71477</v>
+        <v>71439</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1149560941022345</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08120348561898168</v>
+        <v>0.08360110271123895</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1594472284197085</v>
+        <v>0.1593627352703674</v>
       </c>
     </row>
     <row r="41">
@@ -3376,19 +3376,19 @@
         <v>39908</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>27982</v>
+        <v>27988</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>54166</v>
+        <v>52932</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1843235436772969</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.129240050749661</v>
+        <v>0.1292674165532199</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2501772506190323</v>
+        <v>0.2444790952052537</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>79</v>
@@ -3397,19 +3397,19 @@
         <v>58027</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>47442</v>
+        <v>46802</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>70850</v>
+        <v>69590</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2503632275050401</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2046944884968205</v>
+        <v>0.2019311382397052</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3056908178681343</v>
+        <v>0.3002546221264163</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>115</v>
@@ -3418,19 +3418,19 @@
         <v>97934</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>82011</v>
+        <v>81710</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>116084</v>
+        <v>115867</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.2184675199400372</v>
+        <v>0.2184675199400371</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1829457250854107</v>
+        <v>0.1822750033035428</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2589564445373776</v>
+        <v>0.2584719534549381</v>
       </c>
     </row>
     <row r="42">
@@ -3447,19 +3447,19 @@
         <v>98673</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>82595</v>
+        <v>81725</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>116514</v>
+        <v>115146</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.45574354378649</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3814853954156914</v>
+        <v>0.3774689616272845</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5381502285573878</v>
+        <v>0.53182850068682</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>137</v>
@@ -3468,19 +3468,19 @@
         <v>105520</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>91056</v>
+        <v>90094</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>119423</v>
+        <v>118629</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4552772983525923</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3928710886683454</v>
+        <v>0.3887220899124971</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5152639771550526</v>
+        <v>0.511838159033202</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>227</v>
@@ -3489,19 +3489,19 @@
         <v>204192</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>183123</v>
+        <v>181571</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>227276</v>
+        <v>227440</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4555024845913985</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.408503213984491</v>
+        <v>0.4050416919606147</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5069982430239619</v>
+        <v>0.5073630381359107</v>
       </c>
     </row>
     <row r="43">
@@ -3518,19 +3518,19 @@
         <v>30103</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>20379</v>
+        <v>19630</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>45220</v>
+        <v>43778</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1390389670745075</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.094125573289027</v>
+        <v>0.09066483639670717</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2088583244278767</v>
+        <v>0.2021980517006701</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>38</v>
@@ -3539,19 +3539,19 @@
         <v>31834</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>23297</v>
+        <v>23477</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>42842</v>
+        <v>43302</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1373516748237767</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1005160943430858</v>
+        <v>0.101293321579167</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1848464249515206</v>
+        <v>0.1868337910301886</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>62</v>
@@ -3560,19 +3560,19 @@
         <v>61937</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>48417</v>
+        <v>48435</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>78651</v>
+        <v>79435</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1381665996854157</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1080065854842005</v>
+        <v>0.1080469050953707</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1754522061415467</v>
+        <v>0.1772001244278544</v>
       </c>
     </row>
     <row r="44">
@@ -3589,19 +3589,19 @@
         <v>16689</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9351</v>
+        <v>9847</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>28888</v>
+        <v>28255</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.0770800243202555</v>
+        <v>0.07708002432025553</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04318836166068147</v>
+        <v>0.04548065811833137</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1334263518776357</v>
+        <v>0.1305042869374052</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>22</v>
@@ -3610,19 +3610,19 @@
         <v>15994</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>9850</v>
+        <v>10692</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>23521</v>
+        <v>24120</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.06900933912288799</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0425001443124514</v>
+        <v>0.04613072372201765</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1014835878159589</v>
+        <v>0.1040690902942541</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>36</v>
@@ -3631,19 +3631,19 @@
         <v>32683</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>22548</v>
+        <v>23492</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>45445</v>
+        <v>45756</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.07290730168091422</v>
+        <v>0.07290730168091421</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05029948810090151</v>
+        <v>0.05240407929764626</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1013777283799935</v>
+        <v>0.1020713514694122</v>
       </c>
     </row>
     <row r="45">
@@ -3738,16 +3738,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>11656</v>
+        <v>10414</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.008905562748226591</v>
+        <v>0.008905562748226592</v>
       </c>
       <c r="H46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03476898385046927</v>
+        <v>0.03106406166368174</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2</v>
@@ -3759,16 +3759,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>6100</v>
+        <v>6519</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.00497635634951833</v>
+        <v>0.004976356349518331</v>
       </c>
       <c r="O46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01752123021493328</v>
+        <v>0.01872503112698829</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>4</v>
@@ -3777,19 +3777,19 @@
         <v>4718</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>12393</v>
+        <v>14119</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.006903817555254353</v>
+        <v>0.00690381755525435</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001692074016926067</v>
+        <v>0.001672048786215755</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01813444949013866</v>
+        <v>0.02066108459977868</v>
       </c>
     </row>
     <row r="47">
@@ -3806,19 +3806,19 @@
         <v>53532</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>39656</v>
+        <v>39937</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>69710</v>
+        <v>70375</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1596875740063884</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1182953769636192</v>
+        <v>0.1191312603217842</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2079461816223723</v>
+        <v>0.2099280154652423</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>78</v>
@@ -3827,19 +3827,19 @@
         <v>68539</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>55163</v>
+        <v>54335</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>85309</v>
+        <v>83591</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1968653947352869</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1584452244335838</v>
+        <v>0.1560656715925745</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2450348101581853</v>
+        <v>0.2400996532056228</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>121</v>
@@ -3848,19 +3848,19 @@
         <v>122071</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>102380</v>
+        <v>100402</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>145962</v>
+        <v>143268</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.1786279187929902</v>
+        <v>0.1786279187929901</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1498127690856081</v>
+        <v>0.1469186474506357</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2135870366221034</v>
+        <v>0.209645044648646</v>
       </c>
     </row>
     <row r="48">
@@ -3877,19 +3877,19 @@
         <v>85987</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>70473</v>
+        <v>71265</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>102903</v>
+        <v>102257</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.256499577611195</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2102229144012426</v>
+        <v>0.2125848019545687</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3069614678133357</v>
+        <v>0.3050340527030091</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>100</v>
@@ -3898,19 +3898,19 @@
         <v>73563</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>60585</v>
+        <v>60339</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>87442</v>
+        <v>87252</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2112949296853074</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1740200816303645</v>
+        <v>0.1733133464972048</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2511599285792407</v>
+        <v>0.2506145616156998</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>188</v>
@@ -3919,19 +3919,19 @@
         <v>159550</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>137488</v>
+        <v>139874</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>180858</v>
+        <v>183239</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.233469943251596</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2011872177266825</v>
+        <v>0.2046784644178452</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2646511822526344</v>
+        <v>0.2681349174343815</v>
       </c>
     </row>
     <row r="49">
@@ -3948,19 +3948,19 @@
         <v>140803</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>120090</v>
+        <v>121947</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>159244</v>
+        <v>159847</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.4200152629030557</v>
+        <v>0.4200152629030558</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3582297594205177</v>
+        <v>0.363768473347312</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4750257432357426</v>
+        <v>0.4768243392219735</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>173</v>
@@ -3969,19 +3969,19 @@
         <v>128777</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>112832</v>
+        <v>113651</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>144512</v>
+        <v>144834</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.3698881590931987</v>
+        <v>0.3698881590931988</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3240889073439902</v>
+        <v>0.3264412416371066</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4150839204758057</v>
+        <v>0.4160072681829026</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>311</v>
@@ -3990,19 +3990,19 @@
         <v>269580</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>243933</v>
+        <v>245331</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>293600</v>
+        <v>295519</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3944778696213007</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3569489722979703</v>
+        <v>0.3589937183060803</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4296270244520983</v>
+        <v>0.4324350249776006</v>
       </c>
     </row>
     <row r="50">
@@ -4019,19 +4019,19 @@
         <v>51925</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>39645</v>
+        <v>40124</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>66761</v>
+        <v>68168</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1548920227311342</v>
+        <v>0.1548920227311343</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1182615632717955</v>
+        <v>0.1196896094355987</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1991484316329119</v>
+        <v>0.203345473491608</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>93</v>
@@ -4040,19 +4040,19 @@
         <v>75540</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>61543</v>
+        <v>61490</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>90555</v>
+        <v>91398</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.2169751601366887</v>
+        <v>0.2169751601366888</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1767704040250476</v>
+        <v>0.1766186430940213</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2601017423787844</v>
+        <v>0.2625227077848867</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>146</v>
@@ -4061,19 +4061,19 @@
         <v>127465</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>108127</v>
+        <v>107335</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>149535</v>
+        <v>146296</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.186520450778859</v>
+        <v>0.1865204507788589</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1582229284011269</v>
+        <v>0.1570643066432219</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2188154356022188</v>
+        <v>0.2140761771242142</v>
       </c>
     </row>
     <row r="51">
@@ -4165,19 +4165,19 @@
         <v>113722</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>88239</v>
+        <v>87849</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>145089</v>
+        <v>146501</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.08599483553874843</v>
+        <v>0.0859948355387484</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.06672511454166316</v>
+        <v>0.06643022076465159</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1097138450327889</v>
+        <v>0.1107818693549685</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>160</v>
@@ -4186,19 +4186,19 @@
         <v>118456</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>100542</v>
+        <v>99891</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>137718</v>
+        <v>140353</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.08398234794503258</v>
+        <v>0.08398234794503261</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.07128189907181448</v>
+        <v>0.07082051439296129</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.09763871445563099</v>
+        <v>0.09950712259308679</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>241</v>
@@ -4207,19 +4207,19 @@
         <v>232178</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>201496</v>
+        <v>200576</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>269592</v>
+        <v>268353</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.08495616935672727</v>
+        <v>0.08495616935672728</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07372939742601163</v>
+        <v>0.07339280261662828</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.09864664228824217</v>
+        <v>0.09819319763406899</v>
       </c>
     </row>
     <row r="53">
@@ -4236,19 +4236,19 @@
         <v>337909</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>303206</v>
+        <v>305190</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>371438</v>
+        <v>372854</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.2555222161159054</v>
+        <v>0.2555222161159053</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2292800321267862</v>
+        <v>0.2307800236011301</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2808758633010008</v>
+        <v>0.2819467504721977</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>667</v>
@@ -4257,19 +4257,19 @@
         <v>438715</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>407273</v>
+        <v>406708</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>471900</v>
+        <v>470522</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.311038790150341</v>
+        <v>0.3110387901503411</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2887471445859485</v>
+        <v>0.288346467127684</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3345662585257794</v>
+        <v>0.3335888302627816</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>995</v>
@@ -4278,19 +4278,19 @@
         <v>776625</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>728042</v>
+        <v>728151</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>823664</v>
+        <v>821730</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2841749085207183</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.266398135750764</v>
+        <v>0.2664379476547523</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.3013870889250644</v>
+        <v>0.3006795196472988</v>
       </c>
     </row>
     <row r="54">
@@ -4307,19 +4307,19 @@
         <v>505249</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>468443</v>
+        <v>468319</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>543701</v>
+        <v>540843</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.382062025044991</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3542295039198213</v>
+        <v>0.3541361288888035</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4111390946060196</v>
+        <v>0.4089778255601518</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>697</v>
@@ -4328,19 +4328,19 @@
         <v>455357</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>425444</v>
+        <v>425798</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>485806</v>
+        <v>487827</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.3228371238036382</v>
+        <v>0.3228371238036383</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3016300568708594</v>
+        <v>0.3018805471256123</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3444248342635006</v>
+        <v>0.3458579649163782</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1215</v>
@@ -4349,19 +4349,19 @@
         <v>960606</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>912300</v>
+        <v>914210</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1005411</v>
+        <v>1008921</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.351495425655747</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3338198557644458</v>
+        <v>0.3345188900151287</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3678901045291856</v>
+        <v>0.3691745240997392</v>
       </c>
     </row>
     <row r="55">
@@ -4378,19 +4378,19 @@
         <v>211138</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>185670</v>
+        <v>181375</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>243726</v>
+        <v>238668</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1596595515412975</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1404010871634447</v>
+        <v>0.1371534218139548</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1843021861952847</v>
+        <v>0.1804774678194681</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>284</v>
@@ -4399,19 +4399,19 @@
         <v>205796</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>184349</v>
+        <v>182289</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>228639</v>
+        <v>229252</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.1459041871963002</v>
+        <v>0.1459041871963003</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1306990183947853</v>
+        <v>0.1292388834668111</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.162099872344812</v>
+        <v>0.1625345077819594</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>492</v>
@@ -4420,19 +4420,19 @@
         <v>416934</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>381904</v>
+        <v>379518</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>453169</v>
+        <v>450303</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1525602621786494</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1397425660681136</v>
+        <v>0.1388695920530291</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1658192285440548</v>
+        <v>0.1647703171554258</v>
       </c>
     </row>
     <row r="56">
@@ -4449,19 +4449,19 @@
         <v>154408</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>132621</v>
+        <v>132684</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>179558</v>
+        <v>177579</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1167613717590577</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1002861129791766</v>
+        <v>0.1003333592373289</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.135779166982707</v>
+        <v>0.1342827405273376</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>278</v>
@@ -4470,19 +4470,19 @@
         <v>192161</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>169465</v>
+        <v>169369</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>217287</v>
+        <v>216619</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1362375509046878</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.120146627581006</v>
+        <v>0.1200783483440474</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1540514099784644</v>
+        <v>0.1535779053453516</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>449</v>
@@ -4491,19 +4491,19 @@
         <v>346569</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>317515</v>
+        <v>314087</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>383586</v>
+        <v>379546</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.126813234288158</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1161820565443665</v>
+        <v>0.1149276338588053</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1403579287251759</v>
+        <v>0.1388798158811335</v>
       </c>
     </row>
     <row r="57">
